--- a/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Rspo3-Lrp6.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Rspo3-Lrp6.xlsx
@@ -76,19 +76,19 @@
     <t>Edge total expression derived specificity</t>
   </si>
   <si>
+    <t>ECs</t>
+  </si>
+  <si>
     <t>FAPs</t>
   </si>
   <si>
+    <t>Rspo3</t>
+  </si>
+  <si>
+    <t>Lrp6</t>
+  </si>
+  <si>
     <t>MuSCs</t>
-  </si>
-  <si>
-    <t>Rspo3</t>
-  </si>
-  <si>
-    <t>Lrp6</t>
-  </si>
-  <si>
-    <t>ECs</t>
   </si>
   <si>
     <t>Resolving-Mac</t>
@@ -528,25 +528,25 @@
         <v>23</v>
       </c>
       <c r="D2" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G2">
-        <v>4.83236</v>
+        <v>0.06729733333333333</v>
       </c>
       <c r="H2">
-        <v>14.49708</v>
+        <v>0.201892</v>
       </c>
       <c r="I2">
-        <v>0.975350813525687</v>
+        <v>0.01373511018321553</v>
       </c>
       <c r="J2">
-        <v>0.975350813525687</v>
+        <v>0.01373511018321553</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -555,28 +555,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>14.08030833333333</v>
+        <v>13.17295566666667</v>
       </c>
       <c r="N2">
-        <v>42.240925</v>
+        <v>39.518867</v>
       </c>
       <c r="O2">
-        <v>0.1556474304006564</v>
+        <v>0.133784132206724</v>
       </c>
       <c r="P2">
-        <v>0.1556474304006564</v>
+        <v>0.133784132206724</v>
       </c>
       <c r="Q2">
-        <v>68.04111877766667</v>
+        <v>0.8865047884848889</v>
       </c>
       <c r="R2">
-        <v>612.370068999</v>
+        <v>7.978543096364</v>
       </c>
       <c r="S2">
-        <v>0.151810847864463</v>
+        <v>0.001837539796625228</v>
       </c>
       <c r="T2">
-        <v>0.151810847864463</v>
+        <v>0.001837539796625228</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,25 +590,25 @@
         <v>23</v>
       </c>
       <c r="D3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E3">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G3">
-        <v>4.83236</v>
+        <v>0.06729733333333333</v>
       </c>
       <c r="H3">
-        <v>14.49708</v>
+        <v>0.201892</v>
       </c>
       <c r="I3">
-        <v>0.975350813525687</v>
+        <v>0.01373511018321553</v>
       </c>
       <c r="J3">
-        <v>0.975350813525687</v>
+        <v>0.01373511018321553</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -623,22 +623,22 @@
         <v>129.459667</v>
       </c>
       <c r="O3">
-        <v>0.4770270657916382</v>
+        <v>0.4382627974978752</v>
       </c>
       <c r="P3">
-        <v>0.4770270657916382</v>
+        <v>0.4382627974978752</v>
       </c>
       <c r="Q3">
-        <v>208.5319054747066</v>
+        <v>2.904096787773778</v>
       </c>
       <c r="R3">
-        <v>1876.78714927236</v>
+        <v>26.136871089964</v>
       </c>
       <c r="S3">
-        <v>0.4652687366936457</v>
+        <v>0.006019587812837592</v>
       </c>
       <c r="T3">
-        <v>0.4652687366936458</v>
+        <v>0.006019587812837591</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,25 +652,25 @@
         <v>23</v>
       </c>
       <c r="D4" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="E4">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F4">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G4">
-        <v>4.83236</v>
+        <v>0.06729733333333333</v>
       </c>
       <c r="H4">
-        <v>14.49708</v>
+        <v>0.201892</v>
       </c>
       <c r="I4">
-        <v>0.975350813525687</v>
+        <v>0.01373511018321553</v>
       </c>
       <c r="J4">
-        <v>0.975350813525687</v>
+        <v>0.01373511018321553</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -679,28 +679,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>11.31989366666667</v>
+        <v>21.06166566666667</v>
       </c>
       <c r="N4">
-        <v>33.959681</v>
+        <v>63.184997</v>
       </c>
       <c r="O4">
-        <v>0.1251330808895874</v>
+        <v>0.2139016281041017</v>
       </c>
       <c r="P4">
-        <v>0.1251330808895874</v>
+        <v>0.2139016281041017</v>
       </c>
       <c r="Q4">
-        <v>54.70180135905333</v>
+        <v>1.417393934924889</v>
       </c>
       <c r="R4">
-        <v>492.31621223148</v>
+        <v>12.756545414324</v>
       </c>
       <c r="S4">
-        <v>0.1220486522446347</v>
+        <v>0.002937962430379029</v>
       </c>
       <c r="T4">
-        <v>0.1220486522446347</v>
+        <v>0.002937962430379029</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -717,22 +717,22 @@
         <v>25</v>
       </c>
       <c r="E5">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F5">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G5">
-        <v>4.83236</v>
+        <v>0.06729733333333333</v>
       </c>
       <c r="H5">
-        <v>14.49708</v>
+        <v>0.201892</v>
       </c>
       <c r="I5">
-        <v>0.975350813525687</v>
+        <v>0.01373511018321553</v>
       </c>
       <c r="J5">
-        <v>0.975350813525687</v>
+        <v>0.01373511018321553</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -741,28 +741,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>21.909414</v>
+        <v>21.076417</v>
       </c>
       <c r="N5">
-        <v>65.72824199999999</v>
+        <v>63.229251</v>
       </c>
       <c r="O5">
-        <v>0.2421924229181179</v>
+        <v>0.214051442191299</v>
       </c>
       <c r="P5">
-        <v>0.242192422918118</v>
+        <v>0.214051442191299</v>
       </c>
       <c r="Q5">
-        <v>105.87417583704</v>
+        <v>1.418386660321334</v>
       </c>
       <c r="R5">
-        <v>952.8675825333598</v>
+        <v>12.765479942892</v>
       </c>
       <c r="S5">
-        <v>0.2362225767229436</v>
+        <v>0.002940020143373683</v>
       </c>
       <c r="T5">
-        <v>0.2362225767229436</v>
+        <v>0.002940020143373682</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,25 +776,25 @@
         <v>23</v>
       </c>
       <c r="D6" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E6">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F6">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G6">
-        <v>0.122124</v>
+        <v>4.83236</v>
       </c>
       <c r="H6">
-        <v>0.366372</v>
+        <v>14.49708</v>
       </c>
       <c r="I6">
-        <v>0.02464918647431296</v>
+        <v>0.9862648898167845</v>
       </c>
       <c r="J6">
-        <v>0.02464918647431297</v>
+        <v>0.9862648898167844</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -803,28 +803,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>14.08030833333333</v>
+        <v>13.17295566666667</v>
       </c>
       <c r="N6">
-        <v>42.240925</v>
+        <v>39.518867</v>
       </c>
       <c r="O6">
-        <v>0.1556474304006564</v>
+        <v>0.133784132206724</v>
       </c>
       <c r="P6">
-        <v>0.1556474304006564</v>
+        <v>0.133784132206724</v>
       </c>
       <c r="Q6">
-        <v>1.7195435749</v>
+        <v>63.65646404537334</v>
       </c>
       <c r="R6">
-        <v>15.4758921741</v>
+        <v>572.90817640836</v>
       </c>
       <c r="S6">
-        <v>0.003836582536193429</v>
+        <v>0.1319465924100988</v>
       </c>
       <c r="T6">
-        <v>0.003836582536193429</v>
+        <v>0.1319465924100988</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,25 +838,25 @@
         <v>23</v>
       </c>
       <c r="D7" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E7">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F7">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G7">
-        <v>0.122124</v>
+        <v>4.83236</v>
       </c>
       <c r="H7">
-        <v>0.366372</v>
+        <v>14.49708</v>
       </c>
       <c r="I7">
-        <v>0.02464918647431296</v>
+        <v>0.9862648898167845</v>
       </c>
       <c r="J7">
-        <v>0.02464918647431297</v>
+        <v>0.9862648898167844</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,22 +871,22 @@
         <v>129.459667</v>
       </c>
       <c r="O7">
-        <v>0.4770270657916382</v>
+        <v>0.4382627974978752</v>
       </c>
       <c r="P7">
-        <v>0.4770270657916382</v>
+        <v>0.4382627974978752</v>
       </c>
       <c r="Q7">
-        <v>5.270044124236</v>
+        <v>208.5319054747067</v>
       </c>
       <c r="R7">
-        <v>47.430397118124</v>
+        <v>1876.78714927236</v>
       </c>
       <c r="S7">
-        <v>0.01175832909799245</v>
+        <v>0.4322432096850376</v>
       </c>
       <c r="T7">
-        <v>0.01175832909799245</v>
+        <v>0.4322432096850375</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -900,25 +900,25 @@
         <v>23</v>
       </c>
       <c r="D8" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="E8">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F8">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G8">
-        <v>0.122124</v>
+        <v>4.83236</v>
       </c>
       <c r="H8">
-        <v>0.366372</v>
+        <v>14.49708</v>
       </c>
       <c r="I8">
-        <v>0.02464918647431296</v>
+        <v>0.9862648898167845</v>
       </c>
       <c r="J8">
-        <v>0.02464918647431297</v>
+        <v>0.9862648898167844</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -927,28 +927,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>11.31989366666667</v>
+        <v>21.06166566666667</v>
       </c>
       <c r="N8">
-        <v>33.959681</v>
+        <v>63.184997</v>
       </c>
       <c r="O8">
-        <v>0.1251330808895874</v>
+        <v>0.2139016281041017</v>
       </c>
       <c r="P8">
-        <v>0.1251330808895874</v>
+        <v>0.2139016281041017</v>
       </c>
       <c r="Q8">
-        <v>1.382430694148</v>
+        <v>101.7775507009733</v>
       </c>
       <c r="R8">
-        <v>12.441876247332</v>
+        <v>915.9979563087601</v>
       </c>
       <c r="S8">
-        <v>0.003084428644952727</v>
+        <v>0.2109636656737227</v>
       </c>
       <c r="T8">
-        <v>0.003084428644952729</v>
+        <v>0.2109636656737227</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -965,22 +965,22 @@
         <v>25</v>
       </c>
       <c r="E9">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F9">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G9">
-        <v>0.122124</v>
+        <v>4.83236</v>
       </c>
       <c r="H9">
-        <v>0.366372</v>
+        <v>14.49708</v>
       </c>
       <c r="I9">
-        <v>0.02464918647431296</v>
+        <v>0.9862648898167845</v>
       </c>
       <c r="J9">
-        <v>0.02464918647431297</v>
+        <v>0.9862648898167844</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -989,28 +989,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>21.909414</v>
+        <v>21.076417</v>
       </c>
       <c r="N9">
-        <v>65.72824199999999</v>
+        <v>63.229251</v>
       </c>
       <c r="O9">
-        <v>0.2421924229181179</v>
+        <v>0.214051442191299</v>
       </c>
       <c r="P9">
-        <v>0.242192422918118</v>
+        <v>0.214051442191299</v>
       </c>
       <c r="Q9">
-        <v>2.675665275336</v>
+        <v>101.84883445412</v>
       </c>
       <c r="R9">
-        <v>24.080987478024</v>
+        <v>916.6395100870801</v>
       </c>
       <c r="S9">
-        <v>0.005969846195174358</v>
+        <v>0.2111114220479254</v>
       </c>
       <c r="T9">
-        <v>0.005969846195174359</v>
+        <v>0.2111114220479254</v>
       </c>
     </row>
   </sheetData>
